--- a/plots/countries/plot data/Croatia.xlsx
+++ b/plots/countries/plot data/Croatia.xlsx
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>4.40877290053287</v>
+        <v>4.41950135724784</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.34803588216725</v>
+        <v>-6.34968546508522</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>1.30150396010964</v>
+        <v>1.29754803807856</v>
       </c>
     </row>
     <row r="11">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>3.32903307851422</v>
+        <v>3.33577815455283</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-7.527634473334</v>
+        <v>-7.52944521546232</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>1.31620603808014</v>
+        <v>1.31192926343026</v>
       </c>
     </row>
     <row r="20">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>2.7796828262918</v>
+        <v>2.78388008992779</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-7.6280649958667</v>
+        <v>-7.62981432677152</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>1.32851209531833</v>
+        <v>1.32393510386518</v>
       </c>
     </row>
     <row r="29">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>2.2688861825902</v>
+        <v>2.27215260781942</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-7.79546679222559</v>
+        <v>-7.79696326410233</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>1.3386935991199</v>
+        <v>1.33383523530455</v>
       </c>
     </row>
     <row r="38">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>2.50354284114347</v>
+        <v>2.50656855591646</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-8.0631920224483</v>
+        <v>-8.06443712607437</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>1.36330833708313</v>
+        <v>1.35818541510535</v>
       </c>
     </row>
     <row r="47">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>2.32495830297376</v>
+        <v>2.32809902486207</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-8.55116123024609</v>
+        <v>-8.55307504620588</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>1.38636323457713</v>
+        <v>1.38099038165654</v>
       </c>
     </row>
     <row r="56">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>2.28979945717075</v>
+        <v>2.29232111882778</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-8.19502753454028</v>
+        <v>-8.19677445142593</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>1.39933545728403</v>
+        <v>1.39372506538655</v>
       </c>
     </row>
     <row r="65">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>2.4847617287648</v>
+        <v>2.48709502919326</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-7.58333092720066</v>
+        <v>-7.58522936804077</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>1.43135897977341</v>
+        <v>1.42548815976476</v>
       </c>
     </row>
     <row r="74">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>2.24729286019915</v>
+        <v>2.24859756971797</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-7.39104159191355</v>
+        <v>-7.39180743044437</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>1.44824285443319</v>
+        <v>1.44212574910941</v>
       </c>
     </row>
     <row r="83">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>2.68942516075923</v>
+        <v>2.69022458344542</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-8.18514276676311</v>
+        <v>-8.18658505041004</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>1.49112781521145</v>
+        <v>1.48477595694414</v>
       </c>
     </row>
     <row r="92">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>2.95306430562614</v>
+        <v>2.95347672526842</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.73813583060355</v>
+        <v>-6.73742683351388</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>1.52573255695298</v>
+        <v>1.51912875328998</v>
       </c>
     </row>
     <row r="101">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>2.95258958561662</v>
+        <v>2.95250064965038</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-7.98144947988406</v>
+        <v>-7.98189587136955</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>1.53537511080122</v>
+        <v>1.52852063245185</v>
       </c>
     </row>
     <row r="110">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>2.92482171043385</v>
+        <v>2.92429686508827</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-8.26336983995369</v>
+        <v>-8.26268261340904</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>1.56828298206176</v>
+        <v>1.56117849858105</v>
       </c>
     </row>
     <row r="119">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>2.95573432633221</v>
+        <v>2.95455411776547</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-7.43686174812279</v>
+        <v>-7.43658154699188</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>1.59627164712278</v>
+        <v>1.58889212943602</v>
       </c>
     </row>
     <row r="128">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>3.29183266983467</v>
+        <v>3.28999293445007</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-7.76616762169258</v>
+        <v>-7.76299894140548</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>1.63831436220365</v>
+        <v>1.63066745043289</v>
       </c>
     </row>
     <row r="137">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>3.39854374473841</v>
+        <v>3.3961197080847</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-8.00324953494274</v>
+        <v>-8.00097670522698</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>1.62104524886866</v>
+        <v>1.61315901077849</v>
       </c>
     </row>
     <row r="146">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>3.58155363138019</v>
+        <v>3.57863249777498</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-7.81678487612268</v>
+        <v>-7.8144937658713</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>1.70540938919666</v>
+        <v>1.69728159395628</v>
       </c>
     </row>
     <row r="155">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>3.78576289617005</v>
+        <v>3.78284971946356</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-6.6629823620407</v>
+        <v>-6.65951177429792</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>1.7858170390476</v>
+        <v>1.77745859844305</v>
       </c>
     </row>
     <row r="164">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>3.75796582210301</v>
+        <v>3.75346650930879</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-6.86532719887203</v>
+        <v>-6.86058183811469</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>1.89339438224502</v>
+        <v>1.88480694973632</v>
       </c>
     </row>
     <row r="173">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>6.18025007939782</v>
+        <v>6.1803320237452</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>3.12080395687504</v>
+        <v>3.11663607285665</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-6.97140338122686</v>
+        <v>-6.96128976566773</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>1.9641719689382</v>
+        <v>1.95520444992835</v>
       </c>
     </row>
     <row r="182">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>5.94874900277757</v>
+        <v>5.94889951454629</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>3.40477158811209</v>
+        <v>3.39665720696948</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-6.90682928986715</v>
+        <v>-6.90294463695172</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>2.0162853764301</v>
+        <v>2.00738011067102</v>
       </c>
     </row>
     <row r="191">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>5.79753970161967</v>
+        <v>5.797586264481</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>3.28214135248734</v>
+        <v>3.27616618360565</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-5.62724156224455</v>
+        <v>-5.62457833954948</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>2.06563872523376</v>
+        <v>2.05694847141058</v>
       </c>
     </row>
     <row r="200">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>5.61706859954743</v>
+        <v>5.61712658240881</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>3.06750339542339</v>
+        <v>3.06122315207952</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-5.18586871154961</v>
+        <v>-5.18355056712032</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>2.07321195673553</v>
+        <v>2.06463173610096</v>
       </c>
     </row>
     <row r="209">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>5.70185106586608</v>
+        <v>5.70195740000801</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>2.8706526309658</v>
+        <v>2.86591797391417</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-6.15051040912692</v>
+        <v>-6.14775143276748</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>2.0610752711403</v>
+        <v>2.05310988631853</v>
       </c>
     </row>
     <row r="218">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>5.64408658045407</v>
+        <v>5.64431191898138</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>3.10329435483361</v>
+        <v>3.09604010834498</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-6.00272253741088</v>
+        <v>-6.0009364800623</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>2.10798378127605</v>
+        <v>2.09984091017509</v>
       </c>
     </row>
     <row r="227">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>5.95212500445901</v>
+        <v>5.95236062218855</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>3.20066952247089</v>
+        <v>3.19155519715135</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-5.69190233476754</v>
+        <v>-5.68884701187989</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>2.1616543034109</v>
+        <v>2.15437300829725</v>
       </c>
     </row>
     <row r="236">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>6.17234352147699</v>
+        <v>6.1725956479856</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>3.02437042072197</v>
+        <v>3.01367117737576</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-5.6982090791129</v>
+        <v>-5.6975197767637</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>2.16037588930903</v>
+        <v>2.15197802233073</v>
       </c>
     </row>
     <row r="245">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>6.63871789340617</v>
+        <v>6.63901138531124</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>3.40175277624174</v>
+        <v>3.39577766870159</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-4.88368489344615</v>
+        <v>-4.88321030324135</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>2.15391253706147</v>
+        <v>2.14676436270255</v>
       </c>
     </row>
     <row r="254">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>6.40656432936733</v>
+        <v>6.40685548956283</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>3.37900191451572</v>
+        <v>3.37094731979702</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-5.49278313853631</v>
+        <v>-5.49010245915743</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>2.1039252604165</v>
+        <v>2.09805560270163</v>
       </c>
     </row>
     <row r="263">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>6.58465758020296</v>
+        <v>6.58490439841354</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>3.55161189122392</v>
+        <v>3.54174711788448</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-5.72584662467396</v>
+        <v>-5.72343314552732</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>2.06192457766008</v>
+        <v>2.05658810911942</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>2.7007162467279</v>
+        <v>2.70071623454547</v>
       </c>
     </row>
     <row r="273">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>5.79186499081101</v>
+        <v>5.79204511498042</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>3.64237873835176</v>
+        <v>3.63088002126503</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-5.65861394200942</v>
+        <v>-5.65701657902048</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>2.00973870348344</v>
+        <v>2.00466519311395</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>2.68742232786127</v>
+        <v>2.68729447576875</v>
       </c>
     </row>
     <row r="282">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>6.2590747211596</v>
+        <v>6.2593485585061</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>3.59178460731029</v>
+        <v>3.58408642038985</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-5.76372991102597</v>
+        <v>-5.76267843784131</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>1.87542073555143</v>
+        <v>1.87434812516748</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>2.4679080600856</v>
+        <v>2.44715742282352</v>
       </c>
     </row>
     <row r="291">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>6.73094620471741</v>
+        <v>6.73115116834191</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>3.27706290663051</v>
+        <v>3.26684497173517</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-4.86716038239801</v>
+        <v>-4.866520038678</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>1.93529311262139</v>
+        <v>1.93735425229352</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>2.34317526850349</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3.06178472441366</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.452654499010901</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2.45068265505775</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>4.09738347483</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>7.58191420110248</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3.51697403947295</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-5.52573988948825</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.91437962517001</v>
       </c>
     </row>
   </sheetData>
